--- a/Data/EC/NIT-9006665724.xlsx
+++ b/Data/EC/NIT-9006665724.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACB23ED-01E2-42DB-96C5-F2371977C518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BEA51C5-54CD-4535-BE8C-2568A3A68F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EAFD65FD-226A-4BBF-9572-C5D0723F64A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A538C94-5053-46C8-8113-56A152141EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,40 +71,55 @@
     <t>JOSE MIGUEL PACHECO MOTEZUMA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
     <t>2406</t>
   </si>
   <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
+    <t>1143336849</t>
+  </si>
+  <si>
+    <t>MARLYN PAOLA MONTERO ESCOLAR</t>
+  </si>
+  <si>
+    <t>1047473869</t>
+  </si>
+  <si>
+    <t>EDGARDO DE JESUS HERNANDEZ GARCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920C39D4-AD1E-1489-5083-8BB982BD3613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1765DA-135D-A31B-2CCA-A4ECD93F71E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B1AFF4-B252-4F0B-8319-8603A38738F8}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C9BD18-9DE8-4ED0-940E-BB27F6F65D86}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -881,7 +896,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -894,7 +909,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +954,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +986,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1335360</v>
+        <v>1606640</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +1002,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1287,56 +1302,125 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="18">
         <v>111280</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>2782000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18">
+        <v>111280</v>
+      </c>
+      <c r="G28" s="18">
+        <v>2782000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="24">
+        <v>80000</v>
+      </c>
+      <c r="G30" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006665724.xlsx
+++ b/Data/EC/NIT-9006665724.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BEA51C5-54CD-4535-BE8C-2568A3A68F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC2F6A-F28F-4B4E-90C6-45BE83BD42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A538C94-5053-46C8-8113-56A152141EE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{244B5CB6-F179-4D87-85AA-D07FB919A743}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,55 +71,40 @@
     <t>JOSE MIGUEL PACHECO MOTEZUMA</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1143336849</t>
-  </si>
-  <si>
-    <t>MARLYN PAOLA MONTERO ESCOLAR</t>
-  </si>
-  <si>
-    <t>1047473869</t>
-  </si>
-  <si>
-    <t>EDGARDO DE JESUS HERNANDEZ GARCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1765DA-135D-A31B-2CCA-A4ECD93F71E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D402438-BF2A-877F-8C64-7838D524C6F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C9BD18-9DE8-4ED0-940E-BB27F6F65D86}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F90E28-69F7-42C4-AD46-2CE96304CCF1}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -896,7 +881,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -909,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1606640</v>
+        <v>1335360</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,7 +1050,7 @@
         <v>111280</v>
       </c>
       <c r="G16" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,7 +1073,7 @@
         <v>111280</v>
       </c>
       <c r="G17" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1111,7 +1096,7 @@
         <v>111280</v>
       </c>
       <c r="G18" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1134,7 +1119,7 @@
         <v>111280</v>
       </c>
       <c r="G19" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1157,7 +1142,7 @@
         <v>111280</v>
       </c>
       <c r="G20" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1180,7 +1165,7 @@
         <v>111280</v>
       </c>
       <c r="G21" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1203,7 +1188,7 @@
         <v>111280</v>
       </c>
       <c r="G22" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1226,7 +1211,7 @@
         <v>111280</v>
       </c>
       <c r="G23" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1249,7 +1234,7 @@
         <v>111280</v>
       </c>
       <c r="G24" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,7 +1257,7 @@
         <v>111280</v>
       </c>
       <c r="G25" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,132 +1280,63 @@
         <v>111280</v>
       </c>
       <c r="G26" s="18">
-        <v>2782000</v>
+        <v>3025000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="24">
         <v>111280</v>
       </c>
-      <c r="G27" s="18">
-        <v>2782000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="18">
-        <v>111280</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2782000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G30" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="G27" s="24">
+        <v>3025000</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006665724.xlsx
+++ b/Data/EC/NIT-9006665724.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CC2F6A-F28F-4B4E-90C6-45BE83BD42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D08685-EAF7-4768-A9EC-F002691DCDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{244B5CB6-F179-4D87-85AA-D07FB919A743}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{388D5AED-129B-4923-B8A5-4A50ECB6771F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -218,7 +216,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,29 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,19 +453,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D402438-BF2A-877F-8C64-7838D524C6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB5F025-49E2-CB24-F33F-5EA574F2DF88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F90E28-69F7-42C4-AD46-2CE96304CCF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CBB77C-E67F-4BA3-B732-360165EE5283}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -892,49 +898,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -942,7 +948,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -958,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006665724</v>
       </c>
@@ -974,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1335360</v>
       </c>
@@ -1043,18 +1049,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>111280</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>3025000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1066,18 +1072,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>111280</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>3025000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1089,18 +1095,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>111280</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>3025000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1112,18 +1118,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>111280</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>3025000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1135,18 +1141,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>111280</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>3025000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1158,18 +1164,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>111280</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>3025000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1181,18 +1187,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>111280</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>3025000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1204,18 +1210,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>111280</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>3025000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1227,18 +1233,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>111280</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>3025000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1250,18 +1256,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>111280</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>3025000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1273,47 +1279,47 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>111280</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>3025000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>111280</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <v>3025000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="H32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1321,10 +1327,10 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="34"/>
       <c r="H33" s="1" t="s">
         <v>33</v>
       </c>
